--- a/projectionFields.xlsx
+++ b/projectionFields.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BCI\Utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FED2718-0946-4C76-A855-70FB66EF7AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C8CBD14-1D00-427B-B83F-CAF05A5B3988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="795" windowWidth="21600" windowHeight="11295" xr2:uid="{F0B68A70-B9CD-43B7-8854-D8E995B55784}"/>
+    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F0B68A70-B9CD-43B7-8854-D8E995B55784}"/>
   </bookViews>
   <sheets>
     <sheet name="BCI02" sheetId="1" r:id="rId1"/>
     <sheet name="CRS07" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +37,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="52">
   <si>
     <t>Channel #</t>
+  </si>
+  <si>
+    <t>Digits</t>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>1,3,4,5</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>D2PP</t>
+  </si>
+  <si>
+    <t>D1DP</t>
+  </si>
+  <si>
+    <t>D1PP</t>
+  </si>
+  <si>
+    <t>D2MP</t>
+  </si>
+  <si>
+    <t>D2DP</t>
+  </si>
+  <si>
+    <t>D3PP</t>
+  </si>
+  <si>
+    <t>D3MP</t>
+  </si>
+  <si>
+    <t>D3DP</t>
+  </si>
+  <si>
+    <t>D4PP</t>
+  </si>
+  <si>
+    <t>D4MP</t>
+  </si>
+  <si>
+    <t>D4DP</t>
+  </si>
+  <si>
+    <t>D5PP</t>
+  </si>
+  <si>
+    <t>D5MP</t>
+  </si>
+  <si>
+    <t>Thenar</t>
+  </si>
+  <si>
+    <t>D2Pad</t>
+  </si>
+  <si>
+    <t>D3Pad</t>
+  </si>
+  <si>
+    <t>D4Pad</t>
+  </si>
+  <si>
+    <t>D5Pad</t>
+  </si>
+  <si>
+    <t>D5DP</t>
+  </si>
+  <si>
+    <t>Palmar</t>
+  </si>
+  <si>
+    <t>Thumb (D1)</t>
+  </si>
+  <si>
+    <t>Index (D2)</t>
+  </si>
+  <si>
+    <t>Middle (D3)</t>
+  </si>
+  <si>
+    <t>Ring (D4)</t>
+  </si>
+  <si>
+    <t>Pinky (D5)</t>
+  </si>
+  <si>
+    <t>Palm</t>
+  </si>
+  <si>
+    <t>D1M</t>
+  </si>
+  <si>
+    <t>Hypothenar</t>
+  </si>
+  <si>
+    <t>D1Pad</t>
+  </si>
+  <si>
+    <t>D1L</t>
+  </si>
+  <si>
+    <t>D2M</t>
+  </si>
+  <si>
+    <t>D2L</t>
+  </si>
+  <si>
+    <t>D3M</t>
+  </si>
+  <si>
+    <t>D3L</t>
+  </si>
+  <si>
+    <t>D4M</t>
+  </si>
+  <si>
+    <t>D4L</t>
+  </si>
+  <si>
+    <t>D5M</t>
+  </si>
+  <si>
+    <t>D5L</t>
   </si>
 </sst>
 </file>
@@ -82,9 +236,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,44 +565,5081 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5115BE8C-021B-4FF8-9838-8B217EC98DE2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0F7AB9-0BC8-4F55-A32A-D838C38925C7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AJ67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
+    <col min="3" max="31" width="9.140625" style="2"/>
+    <col min="32" max="32" width="12" style="2" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+    </row>
+    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+    </row>
+    <row r="3" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2">
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="2">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2">
+        <v>0</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0</v>
+      </c>
+      <c r="V48" s="2">
+        <v>0</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2">
+        <v>0</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
+        <v>0</v>
+      </c>
+      <c r="V50" s="2">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2">
+        <v>0</v>
+      </c>
+      <c r="V51" s="2">
+        <v>0</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2">
+        <v>0</v>
+      </c>
+      <c r="V52" s="2">
+        <v>0</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0</v>
+      </c>
+      <c r="V53" s="2">
+        <v>0</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="2">
+        <v>0</v>
+      </c>
+      <c r="V54" s="2">
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2">
+        <v>0</v>
+      </c>
+      <c r="V55" s="2">
+        <v>0</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0</v>
+      </c>
+      <c r="V56" s="2">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0</v>
+      </c>
+      <c r="V57" s="2">
+        <v>0</v>
+      </c>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0</v>
+      </c>
+      <c r="V58" s="2">
+        <v>0</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2">
+        <v>0</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0</v>
+      </c>
+      <c r="V59" s="2">
+        <v>0</v>
+      </c>
+      <c r="W59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2">
+        <v>0</v>
+      </c>
+      <c r="U60" s="2">
+        <v>0</v>
+      </c>
+      <c r="V60" s="2">
+        <v>0</v>
+      </c>
+      <c r="W60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>0</v>
+      </c>
+      <c r="T61" s="2">
+        <v>0</v>
+      </c>
+      <c r="U61" s="2">
+        <v>0</v>
+      </c>
+      <c r="V61" s="2">
+        <v>0</v>
+      </c>
+      <c r="W61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2">
+        <v>0</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>0</v>
+      </c>
+      <c r="T62" s="2">
+        <v>0</v>
+      </c>
+      <c r="U62" s="2">
+        <v>0</v>
+      </c>
+      <c r="V62" s="2">
+        <v>0</v>
+      </c>
+      <c r="W62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>0</v>
+      </c>
+      <c r="T63" s="2">
+        <v>0</v>
+      </c>
+      <c r="U63" s="2">
+        <v>0</v>
+      </c>
+      <c r="V63" s="2">
+        <v>0</v>
+      </c>
+      <c r="W63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>0</v>
+      </c>
+      <c r="T64" s="2">
+        <v>0</v>
+      </c>
+      <c r="U64" s="2">
+        <v>0</v>
+      </c>
+      <c r="V64" s="2">
+        <v>0</v>
+      </c>
+      <c r="W64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>0</v>
+      </c>
+      <c r="T65" s="2">
+        <v>0</v>
+      </c>
+      <c r="U65" s="2">
+        <v>0</v>
+      </c>
+      <c r="V65" s="2">
+        <v>0</v>
+      </c>
+      <c r="W65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+      <c r="N66" s="2">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2">
+        <v>0</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>0</v>
+      </c>
+      <c r="T66" s="2">
+        <v>0</v>
+      </c>
+      <c r="U66" s="2">
+        <v>0</v>
+      </c>
+      <c r="V66" s="2">
+        <v>0</v>
+      </c>
+      <c r="W66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>0</v>
+      </c>
+      <c r="T67" s="2">
+        <v>0</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0</v>
+      </c>
+      <c r="V67" s="2">
+        <v>0</v>
+      </c>
+      <c r="W67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="C1:AG1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:S2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
